--- a/data/fact_data/Aurangabad/Aurangabad_sec_Oct_19.xlsx
+++ b/data/fact_data/Aurangabad/Aurangabad_sec_Oct_19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/Aurangabad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4435E047-F76C-CB46-9EAE-094DAC2AD7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D13874-062A-E749-A8F3-BEE074F84319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abad_Anil_Oct_19" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="91">
   <si>
     <t>Betadine Sol. 500ml              5%</t>
   </si>
@@ -308,13 +308,10 @@
     <t>Oct</t>
   </si>
   <si>
-    <t>SEC</t>
+    <t>Kishor</t>
   </si>
   <si>
-    <t>INV</t>
-  </si>
-  <si>
-    <t>Kishor</t>
+    <t>sec</t>
   </si>
 </sst>
 </file>
@@ -8200,7 +8197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF69DF1-D5BD-C64B-8631-4B6A1C8B16E7}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -8252,7 +8249,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>83</v>
@@ -8278,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>83</v>
@@ -8304,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>83</v>
@@ -8330,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>83</v>
@@ -8356,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>83</v>
@@ -8382,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>83</v>
@@ -8408,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>83</v>
@@ -8438,7 +8435,7 @@
         <v>342</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>83</v>
@@ -8464,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>83</v>
@@ -8490,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>83</v>
@@ -8516,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>83</v>
@@ -8546,7 +8543,7 @@
         <v>1464</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>83</v>
@@ -8572,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>83</v>
@@ -8598,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>83</v>
@@ -8621,7 +8618,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>83</v>
@@ -8651,7 +8648,7 @@
         <v>700</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>83</v>
@@ -8681,7 +8678,7 @@
         <v>539</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>83</v>
@@ -8707,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>83</v>
@@ -8733,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>83</v>
@@ -8759,7 +8756,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>83</v>
@@ -8782,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G22" s="25" t="s">
         <v>83</v>
@@ -8812,7 +8809,7 @@
         <v>638</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>83</v>
@@ -8838,7 +8835,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>83</v>
@@ -8866,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>83</v>
@@ -8896,7 +8893,7 @@
         <v>1920</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G26" s="25" t="s">
         <v>83</v>
@@ -8919,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>83</v>
@@ -8945,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>83</v>
@@ -8971,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>83</v>
@@ -8997,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>83</v>
@@ -9023,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>83</v>
@@ -9049,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G32" s="25" t="s">
         <v>83</v>
@@ -9075,7 +9072,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G33" s="25" t="s">
         <v>83</v>
@@ -9101,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>83</v>
@@ -9127,7 +9124,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>83</v>
@@ -9150,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G36" s="25" t="s">
         <v>83</v>
@@ -9176,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>83</v>
@@ -9202,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>83</v>
@@ -9228,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G39" s="25" t="s">
         <v>83</v>
@@ -9254,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G40" s="25" t="s">
         <v>83</v>
@@ -9280,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G41" s="25" t="s">
         <v>83</v>
@@ -9306,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G42" s="25" t="s">
         <v>83</v>
@@ -9332,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G43" s="25" t="s">
         <v>83</v>
@@ -9358,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G44" s="25" t="s">
         <v>83</v>
@@ -9384,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G45" s="25" t="s">
         <v>83</v>
@@ -9407,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G46" s="25" t="s">
         <v>83</v>
@@ -9430,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G47" s="25" t="s">
         <v>83</v>
@@ -9456,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G48" s="25" t="s">
         <v>83</v>
@@ -9482,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G49" s="25" t="s">
         <v>83</v>
@@ -9508,7 +9505,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G50" s="25" t="s">
         <v>83</v>
@@ -9531,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G51" s="25" t="s">
         <v>83</v>
@@ -9557,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G52" s="25" t="s">
         <v>83</v>
@@ -9581,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G53" s="25" t="s">
         <v>83</v>
@@ -9607,7 +9604,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G54" s="25" t="s">
         <v>83</v>
@@ -9631,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G55" s="25" t="s">
         <v>83</v>
@@ -9657,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G56" s="25" t="s">
         <v>83</v>
@@ -9681,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G57" s="25" t="s">
         <v>83</v>
@@ -9707,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G58" s="25" t="s">
         <v>83</v>
@@ -9733,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G59" s="25" t="s">
         <v>83</v>
@@ -9759,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G60" s="25" t="s">
         <v>83</v>
@@ -9785,7 +9782,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G61" s="25" t="s">
         <v>83</v>
@@ -9811,7 +9808,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G62" s="25" t="s">
         <v>83</v>
@@ -9837,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G63" s="25" t="s">
         <v>83</v>
@@ -9863,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G64" s="25" t="s">
         <v>83</v>
@@ -9889,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G65" s="25" t="s">
         <v>83</v>
@@ -9915,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G66" s="25" t="s">
         <v>83</v>
@@ -9938,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G67" s="25" t="s">
         <v>83</v>
@@ -9964,7 +9961,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G68" s="25" t="s">
         <v>83</v>
@@ -9990,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G69" s="25" t="s">
         <v>83</v>
@@ -10016,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G70" s="25" t="s">
         <v>83</v>
@@ -10042,7 +10039,7 @@
         <v>#REF!</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G71" s="25" t="s">
         <v>83</v>
@@ -10063,7 +10060,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G72" s="25" t="s">
         <v>83</v>
@@ -10086,7 +10083,7 @@
         <v>19065</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G73" s="25" t="s">
         <v>83</v>
@@ -12195,7 +12192,7 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C70"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -12209,10 +12206,10 @@
         <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>84</v>
@@ -16398,8 +16395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9EAFA3-E02B-4F4D-8A66-959CE6DDEAF3}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -16414,10 +16411,10 @@
         <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>84</v>
